--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7302.697151763552</v>
+        <v>1453236.733200948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7302.697151763552</v>
+        <v>1453236.733200948</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6327.558164920172</v>
+        <v>379653.4898952102</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6327.558164920172</v>
+        <v>379653.4898952102</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958882873.4194103</v>
+        <v>39069537.76643115</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8782.015945603813</v>
+        <v>882285.377857767</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17008.95496882023</v>
+        <v>1669396.028065638</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25235.89399203662</v>
+        <v>2456506.678273511</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33851.09566329098</v>
+        <v>3218500.596414676</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42170.46746880072</v>
+        <v>4005611.246622548</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50489.83927431046</v>
+        <v>4792721.896830419</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58984.50941808947</v>
+        <v>5586584.360454207</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67445.25085123572</v>
+        <v>6373695.010662076</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75999.26488137248</v>
+        <v>7132828.720415249</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84342.37361328964</v>
+        <v>7919698.651745883</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>92683.52319657714</v>
+        <v>8706809.301953757</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101024.6727798646</v>
+        <v>9493919.952161634</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>109365.8223631521</v>
+        <v>10281030.60236951</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>117706.9719464396</v>
+        <v>11068141.25257739</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126715.6355087798</v>
+        <v>11801259.83870908</v>
       </c>
     </row>
   </sheetData>
